--- a/data/Flow Pathways.xlsx
+++ b/data/Flow Pathways.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr showBorderUnselectedTables="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\A249\LUCAS Base Model - Template Dev\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\stsimcbmcfs3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F34D8C-BE2E-402C-BD2D-D4947775C5DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9645ECDD-15C9-4F51-9D16-1AEEB5E63AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="11" activeTab="11" xr2:uid="{DD29FEF9-7143-4FB8-BF2B-9EEF12B47747}"/>
+    <workbookView xWindow="6825" yWindow="3315" windowWidth="14505" windowHeight="11220" firstSheet="11" activeTab="11" xr2:uid="{DD29FEF9-7143-4FB8-BF2B-9EEF12B47747}"/>
   </bookViews>
   <sheets>
     <sheet name="stsim_Stratum" sheetId="3" state="hidden" r:id="rId1"/>
@@ -528,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -555,35 +555,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF000000"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFD3D3D3"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FFA9A9A9"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFA9A9A9"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -611,6 +590,30 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFD3D3D3"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFA9A9A9"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFA9A9A9"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -625,14 +628,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FAAC4BB-BD4D-40DE-AD3E-E515A1547CEC}" name="Table_WorkbookManifest" displayName="Table_WorkbookManifest" ref="A1:E2" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FAAC4BB-BD4D-40DE-AD3E-E515A1547CEC}" name="Table_WorkbookManifest" displayName="Table_WorkbookManifest" ref="A1:E2" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5">
   <autoFilter ref="A1:E2" xr:uid="{9324B4EE-4FEA-461C-A273-463405A9AADF}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B47A0AEB-7FF9-49E4-980A-A7F086A20BB4}" name="Name" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{5222CA5E-2780-464F-88FA-0CE81B8F06E8}" name="Display Name" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{DB61319F-703D-4EDA-BD07-3734E959F52B}" name="Reference Type" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{67858F3D-9F3A-4517-A111-7885664D0540}" name="Data Location" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{37AA2D7E-DB84-4060-8990-7DF389E3F863}" name="Column Names" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{B47A0AEB-7FF9-49E4-980A-A7F086A20BB4}" name="Name" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{5222CA5E-2780-464F-88FA-0CE81B8F06E8}" name="Display Name" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{DB61319F-703D-4EDA-BD07-3734E959F52B}" name="Reference Type" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{67858F3D-9F3A-4517-A111-7885664D0540}" name="Data Location" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{37AA2D7E-DB84-4060-8990-7DF389E3F863}" name="Column Names" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1087,7 +1090,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,7 +1109,7 @@
     <col min="12" max="12" width="27.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.5703125" style="7" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="23.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="44.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="49.140625" style="7" customWidth="1"/>
     <col min="16" max="16" width="15.85546875" style="7" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="14.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="30.42578125" style="7" hidden="1" customWidth="1"/>
@@ -1186,89 +1189,149 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
       <c r="H2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q2" s="9">
         <v>1</v>
       </c>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="4" t="s">
         <v>27</v>
       </c>
       <c r="Q3" s="9">
         <v>1</v>
       </c>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
       <c r="H4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="Q4" s="9">
         <v>1</v>
       </c>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
       <c r="H5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="4" t="s">
         <v>31</v>
       </c>
       <c r="Q5" s="9">
         <v>1</v>
       </c>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
       <c r="H6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="4" t="s">
         <v>33</v>
       </c>
       <c r="Q6" s="9">
         <v>1</v>
       </c>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H7" s="7" t="s">
@@ -1651,27 +1714,6 @@
   </sheetData>
   <autoFilter ref="A1:V33" xr:uid="{64DBC22F-25D2-43C1-8763-568EDDA27F38}"/>
   <dataValidations count="21">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The value for 'Iteration' must be an integer greater than 0." sqref="A2:A1048576" xr:uid="{990490AC-D393-4207-B78F-4FF1971911D6}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The value for 'Timestep' must be an integer greater than or equal to 0." sqref="B2:B1048576" xr:uid="{10E62495-E0B3-4223-B08B-D9DB24B14E9B}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="You must choose 'FromStratumID' from the supplied list of items." sqref="C2:C1048576" xr:uid="{8010D96B-F982-4445-9FF0-83CD3711755F}">
-      <formula1>Range_stsim_Stratum</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="You must choose 'FromSecondaryStratumID' from the supplied list of items." sqref="D2:D1048576" xr:uid="{2A364D99-7747-4FC1-97EC-88039CDF0FE6}">
-      <formula1>Range_stsim_SecondaryStratum</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="You must choose 'FromTertiaryStratumID' from the supplied list of items." sqref="E2:E1048576" xr:uid="{C3280DEB-966F-4D7A-A0AE-63B362AD62DE}">
-      <formula1>Range_stsim_TertiaryStratum</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="You must choose 'FromStateClassID' from the supplied list of items." sqref="F2:F1048576" xr:uid="{FA37E1CD-83F3-4E5A-ACAD-253CA5EA87E7}">
-      <formula1>Range_stsim_StateClass</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The value for 'FromAgeMin' must be an integer greater than or equal to 0." sqref="G2:G1048576" xr:uid="{27A09B87-38CE-4423-B63D-CC8E31C39AF1}">
-      <formula1>0</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="You must choose 'FromStockTypeID' from the supplied list of items." sqref="H2:H1048576" xr:uid="{0DA8F479-9DF0-4285-B2E4-F5946298B2C0}">
       <formula1>Range_stsimsf_StockType</formula1>
     </dataValidation>
@@ -1690,7 +1732,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="You must choose 'TransitionGroupID' from the supplied list of items." sqref="M2:M1048576" xr:uid="{1E75993A-1768-4556-BEDE-6142AC8AC777}">
       <formula1>Range_stsim_TransitionGroup</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="You must choose 'StateAttributeTypeID' from the supplied list of items." sqref="N2:N1048576" xr:uid="{FB6BF829-ADC1-4CFE-BC67-FE84D5575438}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="You must choose 'StateAttributeTypeID' from the supplied list of items." sqref="N7:N1048576" xr:uid="{FB6BF829-ADC1-4CFE-BC67-FE84D5575438}">
       <formula1>Range_stsim_StateAttributeType</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="You must choose 'FlowTypeID' from the supplied list of items." sqref="O2:O1048576" xr:uid="{8547B5E8-EAF7-49CD-B843-1F65077F2143}">
@@ -1699,19 +1741,40 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="You must choose 'TargetType' from the supplied list of items." sqref="P2:P1048576" xr:uid="{86D9AAAF-DB9A-4E6A-BA13-42B768C6FD4A}">
       <formula1>Range_TargetType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="You must choose 'TransferToStratumID' from the supplied list of items." sqref="R2:R1048576" xr:uid="{A6E35063-3FDB-4E17-A7C2-D2228EB8011D}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The value for 'Iteration' must be an integer greater than 0." sqref="A7:A1048576" xr:uid="{990490AC-D393-4207-B78F-4FF1971911D6}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The value for 'Timestep' must be an integer greater than or equal to 0." sqref="B7:B1048576" xr:uid="{10E62495-E0B3-4223-B08B-D9DB24B14E9B}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="You must choose 'FromStratumID' from the supplied list of items." sqref="C7:C1048576" xr:uid="{8010D96B-F982-4445-9FF0-83CD3711755F}">
       <formula1>Range_stsim_Stratum</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="You must choose 'TransferToSecondaryStratumID' from the supplied list of items." sqref="S2:S1048576" xr:uid="{C611CB94-AC30-4955-879C-14F46261F307}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="You must choose 'FromSecondaryStratumID' from the supplied list of items." sqref="D7:D1048576" xr:uid="{2A364D99-7747-4FC1-97EC-88039CDF0FE6}">
       <formula1>Range_stsim_SecondaryStratum</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="You must choose 'TransferToTertiaryStratumID' from the supplied list of items." sqref="T2:T1048576" xr:uid="{494E7649-5D59-47EE-818F-34EE479A68BC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="You must choose 'FromTertiaryStratumID' from the supplied list of items." sqref="E7:E1048576" xr:uid="{C3280DEB-966F-4D7A-A0AE-63B362AD62DE}">
       <formula1>Range_stsim_TertiaryStratum</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="You must choose 'TransferToStateClassID' from the supplied list of items." sqref="U2:U1048576" xr:uid="{2479221A-35A4-43F0-9D2B-E1F9D632B0A0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="You must choose 'FromStateClassID' from the supplied list of items." sqref="F7:F1048576" xr:uid="{FA37E1CD-83F3-4E5A-ACAD-253CA5EA87E7}">
       <formula1>Range_stsim_StateClass</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The value for 'TransferToAgeMin' must be an integer greater than or equal to 0." sqref="V2:V1048576" xr:uid="{F0A34504-8D49-48D8-80E7-2DDB45FB4435}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The value for 'FromAgeMin' must be an integer greater than or equal to 0." sqref="G7:G1048576" xr:uid="{27A09B87-38CE-4423-B63D-CC8E31C39AF1}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="You must choose 'TransferToStratumID' from the supplied list of items." sqref="R7:R1048576" xr:uid="{A6E35063-3FDB-4E17-A7C2-D2228EB8011D}">
+      <formula1>Range_stsim_Stratum</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="You must choose 'TransferToSecondaryStratumID' from the supplied list of items." sqref="S7:S1048576" xr:uid="{C611CB94-AC30-4955-879C-14F46261F307}">
+      <formula1>Range_stsim_SecondaryStratum</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="You must choose 'TransferToTertiaryStratumID' from the supplied list of items." sqref="T7:T1048576" xr:uid="{494E7649-5D59-47EE-818F-34EE479A68BC}">
+      <formula1>Range_stsim_TertiaryStratum</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="You must choose 'TransferToStateClassID' from the supplied list of items." sqref="U7:U1048576" xr:uid="{2479221A-35A4-43F0-9D2B-E1F9D632B0A0}">
+      <formula1>Range_stsim_StateClass</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="The value for 'TransferToAgeMin' must be an integer greater than or equal to 0." sqref="V7:V1048576" xr:uid="{F0A34504-8D49-48D8-80E7-2DDB45FB4435}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>

--- a/data/Flow Pathways.xlsx
+++ b/data/Flow Pathways.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\stsimcbmcfs3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9645ECDD-15C9-4F51-9D16-1AEEB5E63AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C409AB-1ED1-4B8B-8FC3-8014396D1F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6825" yWindow="3315" windowWidth="14505" windowHeight="11220" firstSheet="11" activeTab="11" xr2:uid="{DD29FEF9-7143-4FB8-BF2B-9EEF12B47747}"/>
+    <workbookView xWindow="2220" yWindow="3255" windowWidth="17310" windowHeight="11910" firstSheet="11" activeTab="11" xr2:uid="{DD29FEF9-7143-4FB8-BF2B-9EEF12B47747}"/>
   </bookViews>
   <sheets>
     <sheet name="stsim_Stratum" sheetId="3" state="hidden" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="137">
   <si>
     <t>Iteration</t>
   </si>
@@ -454,6 +454,21 @@
   </si>
   <si>
     <t>Table</t>
+  </si>
+  <si>
+    <t>Net Growth Forest: Atmosphere -&gt; Coarse Roots</t>
+  </si>
+  <si>
+    <t>Net Growth Forest: Atmosphere -&gt; Fine Roots</t>
+  </si>
+  <si>
+    <t>Net Growth Forest: Atmosphere -&gt; Foliage</t>
+  </si>
+  <si>
+    <t>Net Growth Forest: Atmosphere -&gt; Merchantable</t>
+  </si>
+  <si>
+    <t>Net Growth Forest: Atmosphere -&gt; Other Wood</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1105,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N2" sqref="N2:N6"/>
+      <selection pane="bottomLeft" activeCell="O2" sqref="O2:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,7 +1221,7 @@
         <v>24</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="Q2" s="9">
         <v>1</v>
@@ -1235,7 +1250,7 @@
         <v>24</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="Q3" s="9">
         <v>1</v>
@@ -1264,7 +1279,7 @@
         <v>24</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="9">
         <v>1</v>
@@ -1293,7 +1308,7 @@
         <v>24</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="9">
         <v>1</v>
@@ -1322,7 +1337,7 @@
         <v>24</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c r="Q6" s="9">
         <v>1</v>
